--- a/biology/Zoologie/Brachiopoda/Brachiopoda.xlsx
+++ b/biology/Zoologie/Brachiopoda/Brachiopoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachiopodes
 Les brachiopodes (Brachiopoda), du grec βραχίων / brakhíōn (« bras ») et πούς, ποδός / poüs, podos (« pied »), sont des animaux lophotrochozoaires marins. Ils ont connu un grand succès évolutif au Paléozoïque, où ils furent extrêmement abondants et diversifiés, laissant une grande quantité de fossiles. Il n'en existe plus aujourd'hui que 460 espèces à peine, relativement discrètes.
@@ -512,7 +524,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les brachiopodes sont des animaux extrêmement anciens, appartenant comme les mollusques au groupe des protostomiens. De même que les mollusques bivalves (moule, huître, etc.), la coquille est composée de deux valves. Cependant, l'orientation des valves par rapport au corps est différente, car le plan de symétrie de l'animal est perpendiculaire au plan de séparation de ces dernières. Les brachiopodes ont une valve ventrale (ou pédonculaire, la plus grande) et une valve dorsale (ou brachiale, la plus petite), tandis que les mollusques bivalves ont une valve droite et une valve gauche.
 Une coquille de brachiopode en bon état peut être facilement distinguée d'une coquille de mollusque bivalve par la présence, à l'intérieur, d'un brachidium, qui est le squelette brachial de forme souvent spiralée et complexe qui correspond au support calcaire du lophophore. Depuis cette structure s'élancent des sortes de filaments ciliés, qui capturent le plancton et l'emmènent ensuite à la bouche (tandis que les bivalves se nourrissent en absorbant de l'eau, qui est filtrée à l'intérieur de la coquille).
@@ -546,9 +560,11 @@
           <t>Écologie et histoire évolutive</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alors qu'on connaît environ 12 000 espèces fossiles de brachiopodes, on n'en connaît que 461 espèces actuelles, regroupés dans 5 ordres (contre une trentaine d'ordres fossiles au moins). Ils ont surtout été florissants au Paléozoïque et notamment à l'Ordovicien (−485 à −443 Ma), mais leur abondance s'est effondrée lors de l'extinction Permien-Trias, il y a environ 252 Ma. Ils ont ensuite été supplantés dans leur niche écologique par les bivalves (environ 9 200 espèces actuelles)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors qu'on connaît environ 12 000 espèces fossiles de brachiopodes, on n'en connaît que 461 espèces actuelles, regroupés dans 5 ordres (contre une trentaine d'ordres fossiles au moins). Ils ont surtout été florissants au Paléozoïque et notamment à l'Ordovicien (−485 à −443 Ma), mais leur abondance s'est effondrée lors de l'extinction Permien-Trias, il y a environ 252 Ma. Ils ont ensuite été supplantés dans leur niche écologique par les bivalves (environ 9 200 espèces actuelles).
 Les brachiopodes ont abandonné les niches écologiques qu'ils occupaient auparavant pour se retirer dans des milieux plus adaptés à leur besoins vitaux. Aujourd'hui, on trouve ces organismes, exclusivement marins, dans toutes les mers du monde, bien que la majorité d'entre eux semblent préférer les eaux froides. Ils occupent un intervalle bathymétrique très étendu, allant des plates-formes peu profondes (0–200 m) aux zones abyssales (plus de 4 500 m). La nature du substrat, fonds durs (parois rocheuses, débris coquilliers, tubes de serpules, etc.) ou fonds meubles (vase, sable, etc.), l’énergie du milieu et les apports terrigènes, conditionnent l’installation et la radiation des peuplements de brachiopodes.
 </t>
         </is>
@@ -578,10 +594,12 @@
           <t>Origine et phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le phylum des Brachiopodes est très ancien. Les premières formes connues datent déjà du Cambrien. Les espèces paléozoïques ont été presque toutes décimées par la crise permo-triasique. Leurs fossiles sont très précieux pour les datations des strates de cette période.
-Liste des groupes actuels selon World Register of Marine Species                               (25 février 2016)[3] (qui ne considère pas tous les taxons fossiles) :
+Liste des groupes actuels selon World Register of Marine Species                               (25 février 2016) (qui ne considère pas tous les taxons fossiles) :
 sous-embranchement Craniiformea Popov, Basset, Holmer &amp; Laurie, 1993
 classe Craniata Williams, Carlson, Brunton, Holmer &amp; Popov, 1996 
 ordre Craniida Waagen, 1885 
